--- a/MAX7219/matrix_8x8_patterns.xlsx
+++ b/MAX7219/matrix_8x8_patterns.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="35">
   <si>
     <t>R0</t>
   </si>
@@ -389,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -417,6 +417,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V322"/>
+  <dimension ref="B1:AX322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,11 +738,17 @@
     <col min="16" max="17" width="2.77734375" customWidth="1"/>
     <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="103" width="2.77734375" customWidth="1"/>
+    <col min="20" max="41" width="2.77734375" customWidth="1"/>
+    <col min="42" max="42" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="3.109375" customWidth="1"/>
+    <col min="48" max="50" width="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="103" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -747,8 +757,16 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+    </row>
+    <row r="3" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
@@ -773,8 +791,32 @@
       <c r="K3" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM3" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
         <v>24</v>
       </c>
@@ -826,8 +868,65 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="19"/>
+      <c r="AP4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ4">
+        <f>IF(AF4="x",128,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" ref="AR4" si="1">IF(AG4="x",128,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" ref="AS4" si="2">IF(AH4="x",128,0)</f>
+        <v>128</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" ref="AT4" si="3">IF(AI4="x",128,0)</f>
+        <v>128</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" ref="AU4" si="4">IF(AJ4="x",128,0)</f>
+        <v>128</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" ref="AV4" si="5">IF(AK4="x",128,0)</f>
+        <v>128</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" ref="AW4" si="6">IF(AL4="x",128,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <f t="shared" ref="AX4" si="7">IF(AM4="x",128,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16"/>
       <c r="C5" s="11" t="s">
         <v>1</v>
@@ -852,35 +951,90 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:V5" si="1">IF(E5="x",64,0)</f>
+        <f t="shared" ref="P5:V5" si="8">IF(E5="x",64,0)</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="S5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM5" s="22"/>
+      <c r="AP5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ5">
+        <f>IF(AF5="x",64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" ref="AR5" si="9">IF(AG5="x",64,0)</f>
+        <v>64</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" ref="AS5" si="10">IF(AH5="x",64,0)</f>
+        <v>64</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" ref="AT5" si="11">IF(AI5="x",64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" ref="AU5" si="12">IF(AJ5="x",64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" ref="AV5" si="13">IF(AK5="x",64,0)</f>
+        <v>64</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" ref="AW5" si="14">IF(AL5="x",64,0)</f>
+        <v>64</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" ref="AX5" si="15">IF(AM5="x",64,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16"/>
       <c r="C6" s="11" t="s">
         <v>2</v>
@@ -905,35 +1059,86 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:V6" si="2">IF(E6="x",32,0)</f>
+        <f t="shared" ref="P6:V6" si="16">IF(E6="x",32,0)</f>
         <v>32</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="S6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM6" s="22"/>
+      <c r="AP6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ6">
+        <f>IF(AF6="x",32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" ref="AR6" si="17">IF(AG6="x",32,0)</f>
+        <v>32</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" ref="AS6" si="18">IF(AH6="x",32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" ref="AT6" si="19">IF(AI6="x",32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" ref="AU6" si="20">IF(AJ6="x",32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" ref="AV6" si="21">IF(AK6="x",32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <f t="shared" ref="AW6" si="22">IF(AL6="x",32,0)</f>
+        <v>32</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" ref="AX6" si="23">IF(AM6="x",32,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16"/>
       <c r="C7" s="11" t="s">
         <v>3</v>
@@ -958,35 +1163,86 @@
         <v>16</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:V7" si="3">IF(E7="x",16,0)</f>
+        <f t="shared" ref="P7:V7" si="24">IF(E7="x",16,0)</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="S7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM7" s="22"/>
+      <c r="AP7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ7">
+        <f>IF(AF7="x",16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" ref="AR7" si="25">IF(AG7="x",16,0)</f>
+        <v>16</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" ref="AS7" si="26">IF(AH7="x",16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" ref="AT7" si="27">IF(AI7="x",16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" ref="AU7" si="28">IF(AJ7="x",16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" ref="AV7" si="29">IF(AK7="x",16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" ref="AW7" si="30">IF(AL7="x",16,0)</f>
+        <v>16</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" ref="AX7" si="31">IF(AM7="x",16,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>
       <c r="C8" s="11" t="s">
         <v>4</v>
@@ -1009,35 +1265,86 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P8:V8" si="4">IF(E8="x",8,0)</f>
+        <f t="shared" ref="P8:V8" si="32">IF(E8="x",8,0)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="S8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM8" s="22"/>
+      <c r="AP8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ8">
+        <f>IF(AF8="x",8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" ref="AR8" si="33">IF(AG8="x",8,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" ref="AS8" si="34">IF(AH8="x",8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" ref="AT8" si="35">IF(AI8="x",8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" ref="AU8" si="36">IF(AJ8="x",8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" ref="AV8" si="37">IF(AK8="x",8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" ref="AW8" si="38">IF(AL8="x",8,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" ref="AX8" si="39">IF(AM8="x",8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
       <c r="C9" s="11" t="s">
         <v>5</v>
@@ -1060,35 +1367,86 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <f t="shared" ref="P9:V9" si="5">IF(E9="x",4,0)</f>
+        <f t="shared" ref="P9:V9" si="40">IF(E9="x",4,0)</f>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
       <c r="S9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM9" s="22"/>
+      <c r="AP9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ9">
+        <f>IF(AF9="x",4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" ref="AR9" si="41">IF(AG9="x",4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" ref="AS9" si="42">IF(AH9="x",4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" ref="AT9" si="43">IF(AI9="x",4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" ref="AU9" si="44">IF(AJ9="x",4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" ref="AV9" si="45">IF(AK9="x",4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" ref="AW9" si="46">IF(AL9="x",4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" ref="AX9" si="47">IF(AM9="x",4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16"/>
       <c r="C10" s="11" t="s">
         <v>6</v>
@@ -1111,35 +1469,90 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <f t="shared" ref="P10:V10" si="6">IF(E10="x",2,0)</f>
+        <f t="shared" ref="P10:V10" si="48">IF(E10="x",2,0)</f>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="R10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="S10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="U10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="V10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM10" s="22"/>
+      <c r="AP10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ10">
+        <f>IF(AF10="x",2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" ref="AR10" si="49">IF(AG10="x",2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" ref="AS10" si="50">IF(AH10="x",2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" ref="AT10" si="51">IF(AI10="x",2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" ref="AU10" si="52">IF(AJ10="x",2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" ref="AV10" si="53">IF(AK10="x",2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" ref="AW10" si="54">IF(AL10="x",2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" ref="AX10" si="55">IF(AM10="x",2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
@@ -1168,36 +1581,93 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <f t="shared" ref="P11:V11" si="7">IF(E11="x",1,0)</f>
+        <f t="shared" ref="P11:V11" si="56">IF(E11="x",1,0)</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="R11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="S11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="T11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="U11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="25"/>
+      <c r="AP11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ11">
+        <f>IF(AF11="x",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" ref="AR11" si="57">IF(AG11="x",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" ref="AS11" si="58">IF(AH11="x",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" ref="AT11" si="59">IF(AI11="x",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" ref="AU11" si="60">IF(AJ11="x",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" ref="AV11" si="61">IF(AK11="x",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" ref="AW11" si="62">IF(AL11="x",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" ref="AX11" si="63">IF(AM11="x",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N13" t="s">
         <v>27</v>
       </c>
@@ -1212,8 +1682,22 @@
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
       <c r="V13" s="26"/>
-    </row>
-    <row r="14" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ13" s="26" t="str">
+        <f>DEC2HEX((SUM(AQ4:AQ11)),2)</f>
+        <v>00</v>
+      </c>
+      <c r="AR13" s="26"/>
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="26"/>
+      <c r="AU13" s="26"/>
+      <c r="AV13" s="26"/>
+      <c r="AW13" s="26"/>
+      <c r="AX13" s="26"/>
+    </row>
+    <row r="14" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N14" t="s">
         <v>28</v>
       </c>
@@ -1228,8 +1712,22 @@
       <c r="T14" s="26"/>
       <c r="U14" s="26"/>
       <c r="V14" s="26"/>
-    </row>
-    <row r="15" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="26" t="str">
+        <f>DEC2HEX(SUM(AR4:AR11),2)</f>
+        <v>7E</v>
+      </c>
+      <c r="AS14" s="26"/>
+      <c r="AT14" s="26"/>
+      <c r="AU14" s="26"/>
+      <c r="AV14" s="26"/>
+      <c r="AW14" s="26"/>
+      <c r="AX14" s="26"/>
+    </row>
+    <row r="15" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N15" t="s">
         <v>29</v>
       </c>
@@ -1244,8 +1742,22 @@
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
       <c r="V15" s="26"/>
-    </row>
-    <row r="16" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="26"/>
+      <c r="AS15" s="26" t="str">
+        <f>DEC2HEX(SUM(AS4:AS11),2)</f>
+        <v>C3</v>
+      </c>
+      <c r="AT15" s="26"/>
+      <c r="AU15" s="26"/>
+      <c r="AV15" s="26"/>
+      <c r="AW15" s="26"/>
+      <c r="AX15" s="26"/>
+    </row>
+    <row r="16" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N16" t="s">
         <v>30</v>
       </c>
@@ -1260,8 +1772,22 @@
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
       <c r="V16" s="26"/>
-    </row>
-    <row r="17" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="26"/>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="26" t="str">
+        <f>DEC2HEX(SUM(AT4:AT11),2)</f>
+        <v>81</v>
+      </c>
+      <c r="AU16" s="26"/>
+      <c r="AV16" s="26"/>
+      <c r="AW16" s="26"/>
+      <c r="AX16" s="26"/>
+    </row>
+    <row r="17" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N17" t="s">
         <v>31</v>
       </c>
@@ -1276,8 +1802,22 @@
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
       <c r="V17" s="26"/>
-    </row>
-    <row r="18" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="26" t="str">
+        <f>DEC2HEX(SUM(AU4:AU11),2)</f>
+        <v>81</v>
+      </c>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="26"/>
+    </row>
+    <row r="18" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N18" t="s">
         <v>32</v>
       </c>
@@ -1292,8 +1832,22 @@
       </c>
       <c r="U18" s="26"/>
       <c r="V18" s="26"/>
-    </row>
-    <row r="19" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="26"/>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="26" t="str">
+        <f>DEC2HEX(SUM(AU4:AU11),2)</f>
+        <v>81</v>
+      </c>
+      <c r="AW18" s="26"/>
+      <c r="AX18" s="26"/>
+    </row>
+    <row r="19" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N19" t="s">
         <v>33</v>
       </c>
@@ -1308,8 +1862,22 @@
         <v>00</v>
       </c>
       <c r="V19" s="26"/>
-    </row>
-    <row r="20" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="26"/>
+      <c r="AS19" s="26"/>
+      <c r="AT19" s="26"/>
+      <c r="AU19" s="26"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26" t="str">
+        <f>DEC2HEX(SUM(AW4:AW11),2)</f>
+        <v>7E</v>
+      </c>
+      <c r="AX19" s="26"/>
+    </row>
+    <row r="20" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N20" t="s">
         <v>34</v>
       </c>
@@ -1324,19 +1892,59 @@
         <f>DEC2HEX(SUM(V4:V11),2)</f>
         <v>00</v>
       </c>
-    </row>
-    <row r="21" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="AP20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="26"/>
+      <c r="AS20" s="26"/>
+      <c r="AT20" s="26"/>
+      <c r="AU20" s="26"/>
+      <c r="AV20" s="26"/>
+      <c r="AW20" s="26"/>
+      <c r="AX20" s="26" t="str">
+        <f>DEC2HEX(SUM(AX4:AX11),2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="21" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+    </row>
+    <row r="27" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1628,6 +2236,9 @@
     <row r="321" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="322" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C26:Y26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/MAX7219/matrix_8x8_patterns.xlsx
+++ b/MAX7219/matrix_8x8_patterns.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22116" windowHeight="9552"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="22116" windowHeight="9552" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern_calculator" sheetId="1" r:id="rId1"/>
     <sheet name="template" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Afficheur" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="43">
   <si>
     <t>R0</t>
   </si>
@@ -121,6 +122,30 @@
   </si>
   <si>
     <t>Digit_7</t>
+  </si>
+  <si>
+    <t>M0</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
   </si>
 </sst>
 </file>
@@ -152,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -385,11 +410,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -417,10 +451,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AX322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,12 +802,13 @@
     <col min="16" max="17" width="2.77734375" customWidth="1"/>
     <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="41" width="2.77734375" customWidth="1"/>
+    <col min="20" max="29" width="2.77734375" customWidth="1"/>
+    <col min="30" max="30" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="41" width="2.77734375" customWidth="1"/>
     <col min="42" max="42" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="3.109375" customWidth="1"/>
-    <col min="48" max="50" width="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="48" width="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="3" bestFit="1" customWidth="1"/>
     <col min="51" max="103" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -874,28 +939,24 @@
       <c r="AE4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="19"/>
+      <c r="AF4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="AP4" t="s">
         <v>23</v>
       </c>
       <c r="AQ4">
         <f>IF(AF4="x",128,0)</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AR4">
         <f t="shared" ref="AR4" si="1">IF(AG4="x",128,0)</f>
@@ -903,19 +964,19 @@
       </c>
       <c r="AS4">
         <f t="shared" ref="AS4" si="2">IF(AH4="x",128,0)</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AT4">
         <f t="shared" ref="AT4" si="3">IF(AI4="x",128,0)</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AU4">
         <f t="shared" ref="AU4" si="4">IF(AJ4="x",128,0)</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <f t="shared" ref="AV4" si="5">IF(AK4="x",128,0)</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AW4">
         <f t="shared" ref="AW4" si="6">IF(AL4="x",128,0)</f>
@@ -923,7 +984,7 @@
       </c>
       <c r="AX4">
         <f t="shared" ref="AX4" si="7">IF(AM4="x",128,0)</f>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -982,22 +1043,18 @@
       <c r="AE5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM5" s="22"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM5" s="34"/>
       <c r="AP5" t="s">
         <v>22</v>
       </c>
@@ -1011,7 +1068,7 @@
       </c>
       <c r="AS5">
         <f t="shared" ref="AS5" si="10">IF(AH5="x",64,0)</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AT5">
         <f t="shared" ref="AT5" si="11">IF(AI5="x",64,0)</f>
@@ -1023,7 +1080,7 @@
       </c>
       <c r="AV5">
         <f t="shared" ref="AV5" si="13">IF(AK5="x",64,0)</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AW5">
         <f t="shared" ref="AW5" si="14">IF(AL5="x",64,0)</f>
@@ -1090,18 +1147,22 @@
       <c r="AE6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM6" s="22"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL6" s="33"/>
+      <c r="AM6" s="34"/>
       <c r="AP6" t="s">
         <v>21</v>
       </c>
@@ -1111,27 +1172,27 @@
       </c>
       <c r="AR6">
         <f t="shared" ref="AR6" si="17">IF(AG6="x",32,0)</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <f t="shared" ref="AS6" si="18">IF(AH6="x",32,0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AT6">
         <f t="shared" ref="AT6" si="19">IF(AI6="x",32,0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AU6">
         <f t="shared" ref="AU6" si="20">IF(AJ6="x",32,0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AV6">
         <f t="shared" ref="AV6" si="21">IF(AK6="x",32,0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AW6">
         <f t="shared" ref="AW6" si="22">IF(AL6="x",32,0)</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AX6">
         <f t="shared" ref="AX6" si="23">IF(AM6="x",32,0)</f>
@@ -1194,18 +1255,18 @@
       <c r="AE7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM7" s="22"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="34"/>
       <c r="AP7" t="s">
         <v>20</v>
       </c>
@@ -1215,11 +1276,11 @@
       </c>
       <c r="AR7">
         <f t="shared" ref="AR7" si="25">IF(AG7="x",16,0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AS7">
         <f t="shared" ref="AS7" si="26">IF(AH7="x",16,0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AT7">
         <f t="shared" ref="AT7" si="27">IF(AI7="x",16,0)</f>
@@ -1231,11 +1292,11 @@
       </c>
       <c r="AV7">
         <f t="shared" ref="AV7" si="29">IF(AK7="x",16,0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AW7">
         <f t="shared" ref="AW7" si="30">IF(AL7="x",16,0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AX7">
         <f t="shared" ref="AX7" si="31">IF(AM7="x",16,0)</f>
@@ -1296,18 +1357,18 @@
       <c r="AE8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM8" s="22"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="34"/>
       <c r="AP8" t="s">
         <v>19</v>
       </c>
@@ -1317,11 +1378,11 @@
       </c>
       <c r="AR8">
         <f t="shared" ref="AR8" si="33">IF(AG8="x",8,0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AS8">
         <f t="shared" ref="AS8" si="34">IF(AH8="x",8,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT8">
         <f t="shared" ref="AT8" si="35">IF(AI8="x",8,0)</f>
@@ -1333,11 +1394,11 @@
       </c>
       <c r="AV8">
         <f t="shared" ref="AV8" si="37">IF(AK8="x",8,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW8">
         <f t="shared" ref="AW8" si="38">IF(AL8="x",8,0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AX8">
         <f t="shared" ref="AX8" si="39">IF(AM8="x",8,0)</f>
@@ -1398,18 +1459,22 @@
       <c r="AE9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM9" s="22"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="34"/>
       <c r="AP9" t="s">
         <v>18</v>
       </c>
@@ -1419,27 +1484,27 @@
       </c>
       <c r="AR9">
         <f t="shared" ref="AR9" si="41">IF(AG9="x",4,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS9">
         <f t="shared" ref="AS9" si="42">IF(AH9="x",4,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT9">
         <f t="shared" ref="AT9" si="43">IF(AI9="x",4,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU9">
         <f t="shared" ref="AU9" si="44">IF(AJ9="x",4,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV9">
         <f t="shared" ref="AV9" si="45">IF(AK9="x",4,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW9">
         <f t="shared" ref="AW9" si="46">IF(AL9="x",4,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AX9">
         <f t="shared" ref="AX9" si="47">IF(AM9="x",4,0)</f>
@@ -1500,22 +1565,18 @@
       <c r="AE10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM10" s="22"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM10" s="34"/>
       <c r="AP10" t="s">
         <v>17</v>
       </c>
@@ -1529,7 +1590,7 @@
       </c>
       <c r="AS10">
         <f t="shared" ref="AS10" si="50">IF(AH10="x",2,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT10">
         <f t="shared" ref="AT10" si="51">IF(AI10="x",2,0)</f>
@@ -1541,7 +1602,7 @@
       </c>
       <c r="AV10">
         <f t="shared" ref="AV10" si="53">IF(AK10="x",2,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW10">
         <f t="shared" ref="AW10" si="54">IF(AL10="x",2,0)</f>
@@ -1614,28 +1675,24 @@
       <c r="AE11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI11" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ11" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK11" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL11" s="24"/>
-      <c r="AM11" s="25"/>
+      <c r="AF11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="AP11" t="s">
         <v>16</v>
       </c>
       <c r="AQ11">
         <f>IF(AF11="x",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <f t="shared" ref="AR11" si="57">IF(AG11="x",1,0)</f>
@@ -1643,19 +1700,19 @@
       </c>
       <c r="AS11">
         <f t="shared" ref="AS11" si="58">IF(AH11="x",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11">
         <f t="shared" ref="AT11" si="59">IF(AI11="x",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <f t="shared" ref="AU11" si="60">IF(AJ11="x",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11">
         <f t="shared" ref="AV11" si="61">IF(AK11="x",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11">
         <f t="shared" ref="AW11" si="62">IF(AL11="x",1,0)</f>
@@ -1663,7 +1720,7 @@
       </c>
       <c r="AX11">
         <f t="shared" ref="AX11" si="63">IF(AM11="x",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1687,7 +1744,7 @@
       </c>
       <c r="AQ13" s="26" t="str">
         <f>DEC2HEX((SUM(AQ4:AQ11)),2)</f>
-        <v>00</v>
+        <v>81</v>
       </c>
       <c r="AR13" s="26"/>
       <c r="AS13" s="26"/>
@@ -1715,10 +1772,9 @@
       <c r="AP14" t="s">
         <v>28</v>
       </c>
-      <c r="AQ14" s="26"/>
-      <c r="AR14" s="26" t="str">
+      <c r="AQ14" s="26" t="str">
         <f>DEC2HEX(SUM(AR4:AR11),2)</f>
-        <v>7E</v>
+        <v>42</v>
       </c>
       <c r="AS14" s="26"/>
       <c r="AT14" s="26"/>
@@ -1745,12 +1801,11 @@
       <c r="AP15" t="s">
         <v>29</v>
       </c>
-      <c r="AQ15" s="26"/>
+      <c r="AQ15" s="26" t="str">
+        <f>DEC2HEX(SUM(AS4:AS11),2)</f>
+        <v>3C</v>
+      </c>
       <c r="AR15" s="26"/>
-      <c r="AS15" s="26" t="str">
-        <f>DEC2HEX(SUM(AS4:AS11),2)</f>
-        <v>C3</v>
-      </c>
       <c r="AT15" s="26"/>
       <c r="AU15" s="26"/>
       <c r="AV15" s="26"/>
@@ -1775,13 +1830,12 @@
       <c r="AP16" t="s">
         <v>30</v>
       </c>
-      <c r="AQ16" s="26"/>
+      <c r="AQ16" s="26" t="str">
+        <f>DEC2HEX(SUM(AT4:AT11),2)</f>
+        <v>24</v>
+      </c>
       <c r="AR16" s="26"/>
       <c r="AS16" s="26"/>
-      <c r="AT16" s="26" t="str">
-        <f>DEC2HEX(SUM(AT4:AT11),2)</f>
-        <v>81</v>
-      </c>
       <c r="AU16" s="26"/>
       <c r="AV16" s="26"/>
       <c r="AW16" s="26"/>
@@ -1805,14 +1859,13 @@
       <c r="AP17" t="s">
         <v>31</v>
       </c>
-      <c r="AQ17" s="26"/>
+      <c r="AQ17" s="26" t="str">
+        <f>DEC2HEX(SUM(AU4:AU11),2)</f>
+        <v>24</v>
+      </c>
       <c r="AR17" s="26"/>
       <c r="AS17" s="26"/>
       <c r="AT17" s="26"/>
-      <c r="AU17" s="26" t="str">
-        <f>DEC2HEX(SUM(AU4:AU11),2)</f>
-        <v>81</v>
-      </c>
       <c r="AV17" s="26"/>
       <c r="AW17" s="26"/>
       <c r="AX17" s="26"/>
@@ -1835,15 +1888,14 @@
       <c r="AP18" t="s">
         <v>32</v>
       </c>
-      <c r="AQ18" s="26"/>
+      <c r="AQ18" s="26" t="str">
+        <f>DEC2HEX(SUM(AU4:AU11),2)</f>
+        <v>24</v>
+      </c>
       <c r="AR18" s="26"/>
       <c r="AS18" s="26"/>
       <c r="AT18" s="26"/>
       <c r="AU18" s="26"/>
-      <c r="AV18" s="26" t="str">
-        <f>DEC2HEX(SUM(AU4:AU11),2)</f>
-        <v>81</v>
-      </c>
       <c r="AW18" s="26"/>
       <c r="AX18" s="26"/>
     </row>
@@ -1865,16 +1917,15 @@
       <c r="AP19" t="s">
         <v>33</v>
       </c>
-      <c r="AQ19" s="26"/>
+      <c r="AQ19" s="26" t="str">
+        <f>DEC2HEX(SUM(AW4:AW11),2)</f>
+        <v>42</v>
+      </c>
       <c r="AR19" s="26"/>
       <c r="AS19" s="26"/>
       <c r="AT19" s="26"/>
       <c r="AU19" s="26"/>
       <c r="AV19" s="26"/>
-      <c r="AW19" s="26" t="str">
-        <f>DEC2HEX(SUM(AW4:AW11),2)</f>
-        <v>7E</v>
-      </c>
       <c r="AX19" s="26"/>
     </row>
     <row r="20" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1895,17 +1946,16 @@
       <c r="AP20" t="s">
         <v>34</v>
       </c>
-      <c r="AQ20" s="26"/>
+      <c r="AQ20" s="26" t="str">
+        <f>DEC2HEX(SUM(AX4:AX11),2)</f>
+        <v>81</v>
+      </c>
       <c r="AR20" s="26"/>
       <c r="AS20" s="26"/>
       <c r="AT20" s="26"/>
       <c r="AU20" s="26"/>
       <c r="AV20" s="26"/>
       <c r="AW20" s="26"/>
-      <c r="AX20" s="26" t="str">
-        <f>DEC2HEX(SUM(AX4:AX11),2)</f>
-        <v>00</v>
-      </c>
     </row>
     <row r="21" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1913,31 +1963,31 @@
     <row r="24" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
     </row>
     <row r="27" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="3:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2453,12 +2503,679 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D1:BO28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF18" sqref="AF18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="77" width="2.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="4:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="38"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
+      <c r="BN2" s="38"/>
+      <c r="BO2" s="38"/>
+    </row>
+    <row r="3" spans="4:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="17"/>
+      <c r="BI3" s="18"/>
+      <c r="BJ3" s="18"/>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="18"/>
+      <c r="BM3" s="18"/>
+      <c r="BN3" s="18"/>
+      <c r="BO3" s="19"/>
+    </row>
+    <row r="4" spans="4:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="21"/>
+      <c r="AW4" s="21"/>
+      <c r="AX4" s="21"/>
+      <c r="AY4" s="22"/>
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="21"/>
+      <c r="BB4" s="21"/>
+      <c r="BC4" s="21"/>
+      <c r="BD4" s="21"/>
+      <c r="BE4" s="21"/>
+      <c r="BF4" s="21"/>
+      <c r="BG4" s="22"/>
+      <c r="BH4" s="20"/>
+      <c r="BI4" s="21"/>
+      <c r="BJ4" s="21"/>
+      <c r="BK4" s="21"/>
+      <c r="BL4" s="21"/>
+      <c r="BM4" s="21"/>
+      <c r="BN4" s="21"/>
+      <c r="BO4" s="22"/>
+    </row>
+    <row r="5" spans="4:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="21"/>
+      <c r="AT5" s="21"/>
+      <c r="AU5" s="21"/>
+      <c r="AV5" s="21"/>
+      <c r="AW5" s="21"/>
+      <c r="AX5" s="21"/>
+      <c r="AY5" s="22"/>
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="21"/>
+      <c r="BB5" s="21"/>
+      <c r="BC5" s="21"/>
+      <c r="BD5" s="21"/>
+      <c r="BE5" s="21"/>
+      <c r="BF5" s="21"/>
+      <c r="BG5" s="22"/>
+      <c r="BH5" s="20"/>
+      <c r="BI5" s="21"/>
+      <c r="BJ5" s="21"/>
+      <c r="BK5" s="21"/>
+      <c r="BL5" s="21"/>
+      <c r="BM5" s="21"/>
+      <c r="BN5" s="21"/>
+      <c r="BO5" s="22"/>
+    </row>
+    <row r="6" spans="4:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="21"/>
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="21"/>
+      <c r="BE6" s="21"/>
+      <c r="BF6" s="21"/>
+      <c r="BG6" s="22"/>
+      <c r="BH6" s="20"/>
+      <c r="BI6" s="21"/>
+      <c r="BJ6" s="21"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="21"/>
+      <c r="BM6" s="21"/>
+      <c r="BN6" s="21"/>
+      <c r="BO6" s="22"/>
+    </row>
+    <row r="7" spans="4:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="22"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="22"/>
+      <c r="AZ7" s="20"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="22"/>
+      <c r="BH7" s="20"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="21"/>
+      <c r="BM7" s="21"/>
+      <c r="BN7" s="21"/>
+      <c r="BO7" s="22"/>
+    </row>
+    <row r="8" spans="4:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="22"/>
+      <c r="AZ8" s="20"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="21"/>
+      <c r="BE8" s="21"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="22"/>
+      <c r="BH8" s="20"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
+      <c r="BK8" s="21"/>
+      <c r="BL8" s="21"/>
+      <c r="BM8" s="21"/>
+      <c r="BN8" s="21"/>
+      <c r="BO8" s="22"/>
+    </row>
+    <row r="9" spans="4:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21"/>
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21"/>
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21"/>
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21"/>
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21"/>
+      <c r="BO9" s="22"/>
+    </row>
+    <row r="10" spans="4:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="24"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="23"/>
+      <c r="AS10" s="24"/>
+      <c r="AT10" s="24"/>
+      <c r="AU10" s="24"/>
+      <c r="AV10" s="24"/>
+      <c r="AW10" s="24"/>
+      <c r="AX10" s="24"/>
+      <c r="AY10" s="25"/>
+      <c r="AZ10" s="23"/>
+      <c r="BA10" s="24"/>
+      <c r="BB10" s="24"/>
+      <c r="BC10" s="24"/>
+      <c r="BD10" s="24"/>
+      <c r="BE10" s="24"/>
+      <c r="BF10" s="24"/>
+      <c r="BG10" s="25"/>
+      <c r="BH10" s="23"/>
+      <c r="BI10" s="24"/>
+      <c r="BJ10" s="24"/>
+      <c r="BK10" s="24"/>
+      <c r="BL10" s="24"/>
+      <c r="BM10" s="24"/>
+      <c r="BN10" s="24"/>
+      <c r="BO10" s="25"/>
+    </row>
+    <row r="11" spans="4:67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="4:67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="4:67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="4:67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="4:67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="4:67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="BH2:BO2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="AB2:AI2"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AR2:AY2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <f>LOG(8,2)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MAX7219/matrix_8x8_patterns.xlsx
+++ b/MAX7219/matrix_8x8_patterns.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pattern_calculator" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="template" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Afficheur" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Feuil1" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Afficheur Score" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="51">
   <si>
     <t xml:space="preserve">C7</t>
   </si>
@@ -372,7 +372,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -489,27 +489,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -541,14 +521,56 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>119160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>59760</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11799720" y="3690720"/>
+          <a:ext cx="4253760" cy="4115880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AX27"/>
+  <dimension ref="B1:AX322"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AD30" activeCellId="0" sqref="AD30"/>
     </sheetView>
   </sheetViews>
@@ -557,10 +579,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="4.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="0" width="4.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="23" style="0" width="2.77"/>
@@ -568,10 +590,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="31" style="0" width="2.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="6.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="43" style="0" width="2.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="45" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="45" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="49" style="0" width="2.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="51" style="0" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="104" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="104" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2110,7 +2132,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
@@ -2120,7 +2142,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="2" style="0" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="34" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="34" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2182,98 +2204,98 @@
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -2282,14 +2304,14 @@
       <c r="B10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2327,100 +2349,100 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D1:BO11"/>
+  <dimension ref="D1:BO28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF18" activeCellId="0" sqref="AF18"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="1" style="0" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="78" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="78" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38" t="s">
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38" t="s">
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38" t="s">
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="38"/>
-      <c r="BG2" s="38"/>
-      <c r="BH2" s="38" t="s">
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="33"/>
+      <c r="BE2" s="33"/>
+      <c r="BF2" s="33"/>
+      <c r="BG2" s="33"/>
+      <c r="BH2" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="BI2" s="38"/>
-      <c r="BJ2" s="38"/>
-      <c r="BK2" s="38"/>
-      <c r="BL2" s="38"/>
-      <c r="BM2" s="38"/>
-      <c r="BN2" s="38"/>
-      <c r="BO2" s="38"/>
+      <c r="BI2" s="33"/>
+      <c r="BJ2" s="33"/>
+      <c r="BK2" s="33"/>
+      <c r="BL2" s="33"/>
+      <c r="BM2" s="33"/>
+      <c r="BN2" s="33"/>
+      <c r="BO2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="6"/>
@@ -2994,24 +3016,2547 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C4"/>
+  <dimension ref="D1:CF69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CB49" activeCellId="0" sqref="CB49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="2.55"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="n">
-        <f aca="false">LOG(8,2)</f>
-        <v>3</v>
-      </c>
-    </row>
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI1" s="33"/>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="33"/>
+      <c r="BN1" s="33"/>
+      <c r="BO1" s="33"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BN2" s="7"/>
+      <c r="BO2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="15"/>
+      <c r="BH3" s="13"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="15"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="13"/>
+      <c r="BI4" s="14"/>
+      <c r="BJ4" s="14"/>
+      <c r="BK4" s="14"/>
+      <c r="BL4" s="14"/>
+      <c r="BM4" s="14"/>
+      <c r="BN4" s="14"/>
+      <c r="BO4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="15"/>
+      <c r="BH5" s="13"/>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="14"/>
+      <c r="BK5" s="14"/>
+      <c r="BL5" s="14"/>
+      <c r="BM5" s="14"/>
+      <c r="BN5" s="14"/>
+      <c r="BO5" s="15"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="14"/>
+      <c r="BF6" s="14"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="13"/>
+      <c r="BI6" s="14"/>
+      <c r="BJ6" s="14"/>
+      <c r="BK6" s="14"/>
+      <c r="BL6" s="14"/>
+      <c r="BM6" s="14"/>
+      <c r="BN6" s="14"/>
+      <c r="BO6" s="15"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="13"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="14"/>
+      <c r="BL7" s="14"/>
+      <c r="BM7" s="14"/>
+      <c r="BN7" s="14"/>
+      <c r="BO7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="15"/>
+      <c r="BH8" s="13"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="14"/>
+      <c r="BM8" s="14"/>
+      <c r="BN8" s="14"/>
+      <c r="BO8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21"/>
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21"/>
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21"/>
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21"/>
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21"/>
+      <c r="BO9" s="22"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="15"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC22" s="15"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK22" s="15"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="14"/>
+      <c r="AS22" s="15"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="Y23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK23" s="15"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="15"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK24" s="15"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="15"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK25" s="15"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="15"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK26" s="15"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="15"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC27" s="22"/>
+      <c r="AG27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK27" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO27" s="21"/>
+      <c r="AP27" s="21"/>
+      <c r="AQ27" s="21"/>
+      <c r="AR27" s="21"/>
+      <c r="AS27" s="22"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="22"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="8"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="15"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ35" s="15"/>
+      <c r="AM35" s="14"/>
+      <c r="AN35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ35" s="15"/>
+      <c r="AT35" s="14"/>
+      <c r="AU35" s="14"/>
+      <c r="AV35" s="14"/>
+      <c r="AW35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX35" s="15"/>
+      <c r="BA35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE35" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH35" s="14"/>
+      <c r="BI35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BK35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL35" s="15"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="15"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="15"/>
+      <c r="AF36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN36" s="14"/>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="14"/>
+      <c r="AQ36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT36" s="14"/>
+      <c r="AU36" s="14"/>
+      <c r="AV36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX36" s="15"/>
+      <c r="BA36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB36" s="14"/>
+      <c r="BC36" s="14"/>
+      <c r="BD36" s="14"/>
+      <c r="BE36" s="15"/>
+      <c r="BH36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI36" s="14"/>
+      <c r="BJ36" s="14"/>
+      <c r="BK36" s="14"/>
+      <c r="BL36" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="15"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="15"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT37" s="14"/>
+      <c r="AU37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV37" s="14"/>
+      <c r="AW37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX37" s="15"/>
+      <c r="BA37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB37" s="14"/>
+      <c r="BC37" s="14"/>
+      <c r="BD37" s="14"/>
+      <c r="BE37" s="15"/>
+      <c r="BH37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI37" s="14"/>
+      <c r="BJ37" s="14"/>
+      <c r="BK37" s="14"/>
+      <c r="BL37" s="15"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="15"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ38" s="15"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="14"/>
+      <c r="AO38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ38" s="15"/>
+      <c r="AT38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU38" s="14"/>
+      <c r="AV38" s="14"/>
+      <c r="AW38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX38" s="15"/>
+      <c r="BA38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE38" s="15"/>
+      <c r="BH38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BK38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL38" s="15"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="15"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI39" s="14"/>
+      <c r="AJ39" s="15"/>
+      <c r="AM39" s="14"/>
+      <c r="AN39" s="14"/>
+      <c r="AO39" s="14"/>
+      <c r="AP39" s="14"/>
+      <c r="AQ39" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX39" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA39" s="14"/>
+      <c r="BB39" s="14"/>
+      <c r="BC39" s="14"/>
+      <c r="BD39" s="14"/>
+      <c r="BE39" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI39" s="14"/>
+      <c r="BJ39" s="14"/>
+      <c r="BK39" s="14"/>
+      <c r="BL39" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="15"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="15"/>
+      <c r="AM40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN40" s="14"/>
+      <c r="AO40" s="14"/>
+      <c r="AP40" s="14"/>
+      <c r="AQ40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT40" s="14"/>
+      <c r="AU40" s="14"/>
+      <c r="AV40" s="14"/>
+      <c r="AW40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX40" s="15"/>
+      <c r="BA40" s="14"/>
+      <c r="BB40" s="14"/>
+      <c r="BC40" s="14"/>
+      <c r="BD40" s="14"/>
+      <c r="BE40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI40" s="14"/>
+      <c r="BJ40" s="14"/>
+      <c r="BK40" s="14"/>
+      <c r="BL40" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC41" s="22"/>
+      <c r="AF41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ41" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM41" s="21"/>
+      <c r="AN41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ41" s="22"/>
+      <c r="AT41" s="21"/>
+      <c r="AU41" s="21"/>
+      <c r="AV41" s="21"/>
+      <c r="AW41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX41" s="22"/>
+      <c r="BA41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE41" s="22"/>
+      <c r="BH41" s="21"/>
+      <c r="BI41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BK41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL41" s="22"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="22"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF44" s="14"/>
+      <c r="AG44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ44" s="15"/>
+      <c r="AM44" s="14"/>
+      <c r="AN44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ44" s="15"/>
+      <c r="AT44" s="14"/>
+      <c r="AU44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX44" s="15"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF45" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="14"/>
+      <c r="AJ45" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM45" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN45" s="14"/>
+      <c r="AO45" s="14"/>
+      <c r="AP45" s="14"/>
+      <c r="AQ45" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT45" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU45" s="14"/>
+      <c r="AV45" s="14"/>
+      <c r="AW45" s="14"/>
+      <c r="AX45" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC46" s="15"/>
+      <c r="AF46" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM46" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN46" s="14"/>
+      <c r="AO46" s="14"/>
+      <c r="AP46" s="14"/>
+      <c r="AQ46" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT46" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU46" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV46" s="14"/>
+      <c r="AW46" s="14"/>
+      <c r="AX46" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="15"/>
+      <c r="AF47" s="14"/>
+      <c r="AG47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ47" s="15"/>
+      <c r="AM47" s="14"/>
+      <c r="AN47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ47" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU47" s="14"/>
+      <c r="AV47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW47" s="14"/>
+      <c r="AX47" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="15"/>
+      <c r="AF48" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG48" s="14"/>
+      <c r="AH48" s="14"/>
+      <c r="AI48" s="14"/>
+      <c r="AJ48" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM48" s="14"/>
+      <c r="AN48" s="14"/>
+      <c r="AO48" s="14"/>
+      <c r="AP48" s="14"/>
+      <c r="AQ48" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT48" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU48" s="14"/>
+      <c r="AV48" s="14"/>
+      <c r="AW48" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX48" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="15"/>
+      <c r="AF49" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG49" s="14"/>
+      <c r="AH49" s="14"/>
+      <c r="AI49" s="14"/>
+      <c r="AJ49" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM49" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN49" s="14"/>
+      <c r="AO49" s="14"/>
+      <c r="AP49" s="14"/>
+      <c r="AQ49" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT49" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU49" s="14"/>
+      <c r="AV49" s="14"/>
+      <c r="AW49" s="14"/>
+      <c r="AX49" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB50" s="21"/>
+      <c r="AC50" s="22"/>
+      <c r="AF50" s="21"/>
+      <c r="AG50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ50" s="22"/>
+      <c r="AM50" s="21"/>
+      <c r="AN50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ50" s="22"/>
+      <c r="AT50" s="21"/>
+      <c r="AU50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX50" s="22"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U59" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="V59" s="33"/>
+      <c r="W59" s="33"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="33"/>
+      <c r="AC59" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD59" s="33"/>
+      <c r="AE59" s="33"/>
+      <c r="AF59" s="33"/>
+      <c r="AG59" s="33"/>
+      <c r="AH59" s="33"/>
+      <c r="AI59" s="33"/>
+      <c r="AJ59" s="33"/>
+      <c r="AK59" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL59" s="33"/>
+      <c r="AM59" s="33"/>
+      <c r="AN59" s="33"/>
+      <c r="AO59" s="33"/>
+      <c r="AP59" s="33"/>
+      <c r="AQ59" s="33"/>
+      <c r="AR59" s="33"/>
+      <c r="AS59" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT59" s="33"/>
+      <c r="AU59" s="33"/>
+      <c r="AV59" s="33"/>
+      <c r="AW59" s="33"/>
+      <c r="AX59" s="33"/>
+      <c r="AY59" s="33"/>
+      <c r="AZ59" s="33"/>
+      <c r="BA59" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB59" s="33"/>
+      <c r="BC59" s="33"/>
+      <c r="BD59" s="33"/>
+      <c r="BE59" s="33"/>
+      <c r="BF59" s="33"/>
+      <c r="BG59" s="33"/>
+      <c r="BH59" s="33"/>
+      <c r="BI59" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ59" s="33"/>
+      <c r="BK59" s="33"/>
+      <c r="BL59" s="33"/>
+      <c r="BM59" s="33"/>
+      <c r="BN59" s="33"/>
+      <c r="BO59" s="33"/>
+      <c r="BP59" s="33"/>
+      <c r="BQ59" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR59" s="33"/>
+      <c r="BS59" s="33"/>
+      <c r="BT59" s="33"/>
+      <c r="BU59" s="33"/>
+      <c r="BV59" s="33"/>
+      <c r="BW59" s="33"/>
+      <c r="BX59" s="33"/>
+      <c r="BY59" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="BZ59" s="33"/>
+      <c r="CA59" s="33"/>
+      <c r="CB59" s="33"/>
+      <c r="CC59" s="33"/>
+      <c r="CD59" s="33"/>
+      <c r="CE59" s="33"/>
+      <c r="CF59" s="33"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U60" s="6"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="6"/>
+      <c r="AL60" s="7"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+      <c r="AO60" s="7"/>
+      <c r="AP60" s="7"/>
+      <c r="AQ60" s="7"/>
+      <c r="AR60" s="8"/>
+      <c r="AS60" s="6"/>
+      <c r="AT60" s="7"/>
+      <c r="AU60" s="7"/>
+      <c r="AV60" s="7"/>
+      <c r="AW60" s="7"/>
+      <c r="AX60" s="7"/>
+      <c r="AY60" s="7"/>
+      <c r="AZ60" s="8"/>
+      <c r="BA60" s="6"/>
+      <c r="BB60" s="7"/>
+      <c r="BC60" s="7"/>
+      <c r="BD60" s="7"/>
+      <c r="BE60" s="7"/>
+      <c r="BF60" s="7"/>
+      <c r="BG60" s="7"/>
+      <c r="BH60" s="8"/>
+      <c r="BI60" s="6"/>
+      <c r="BJ60" s="7"/>
+      <c r="BK60" s="7"/>
+      <c r="BL60" s="7"/>
+      <c r="BM60" s="7"/>
+      <c r="BN60" s="7"/>
+      <c r="BO60" s="7"/>
+      <c r="BP60" s="8"/>
+      <c r="BQ60" s="6"/>
+      <c r="BR60" s="7"/>
+      <c r="BS60" s="7"/>
+      <c r="BT60" s="7"/>
+      <c r="BU60" s="7"/>
+      <c r="BV60" s="7"/>
+      <c r="BW60" s="7"/>
+      <c r="BX60" s="8"/>
+      <c r="BY60" s="6"/>
+      <c r="BZ60" s="7"/>
+      <c r="CA60" s="7"/>
+      <c r="CB60" s="7"/>
+      <c r="CC60" s="7"/>
+      <c r="CD60" s="7"/>
+      <c r="CE60" s="7"/>
+      <c r="CF60" s="8"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U61" s="13"/>
+      <c r="V61" s="14"/>
+      <c r="W61" s="14"/>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB61" s="15"/>
+      <c r="AC61" s="13"/>
+      <c r="AD61" s="14"/>
+      <c r="AE61" s="14"/>
+      <c r="AF61" s="14"/>
+      <c r="AG61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ61" s="15"/>
+      <c r="AK61" s="13"/>
+      <c r="AL61" s="14"/>
+      <c r="AM61" s="14"/>
+      <c r="AN61" s="14"/>
+      <c r="AO61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR61" s="15"/>
+      <c r="AS61" s="13"/>
+      <c r="AT61" s="14"/>
+      <c r="AU61" s="14"/>
+      <c r="AV61" s="14"/>
+      <c r="AW61" s="14"/>
+      <c r="AX61" s="14"/>
+      <c r="AY61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ61" s="15"/>
+      <c r="BA61" s="13"/>
+      <c r="BB61" s="14"/>
+      <c r="BC61" s="14"/>
+      <c r="BD61" s="14"/>
+      <c r="BE61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH61" s="15"/>
+      <c r="BI61" s="13"/>
+      <c r="BJ61" s="14"/>
+      <c r="BK61" s="14"/>
+      <c r="BL61" s="14"/>
+      <c r="BM61" s="14"/>
+      <c r="BN61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO61" s="14"/>
+      <c r="BP61" s="15"/>
+      <c r="BQ61" s="13"/>
+      <c r="BR61" s="14"/>
+      <c r="BS61" s="14"/>
+      <c r="BT61" s="14"/>
+      <c r="BU61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BV61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BW61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BX61" s="15"/>
+      <c r="BY61" s="13"/>
+      <c r="BZ61" s="14"/>
+      <c r="CA61" s="14"/>
+      <c r="CB61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CC61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CD61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CE61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CF61" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U62" s="13"/>
+      <c r="V62" s="14"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y62" s="14"/>
+      <c r="Z62" s="14"/>
+      <c r="AA62" s="14"/>
+      <c r="AB62" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC62" s="13"/>
+      <c r="AD62" s="14"/>
+      <c r="AE62" s="14"/>
+      <c r="AF62" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG62" s="14"/>
+      <c r="AH62" s="14"/>
+      <c r="AI62" s="14"/>
+      <c r="AJ62" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK62" s="13"/>
+      <c r="AL62" s="14"/>
+      <c r="AM62" s="14"/>
+      <c r="AN62" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO62" s="14"/>
+      <c r="AP62" s="14"/>
+      <c r="AQ62" s="14"/>
+      <c r="AR62" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS62" s="13"/>
+      <c r="AT62" s="14"/>
+      <c r="AU62" s="14"/>
+      <c r="AV62" s="14"/>
+      <c r="AW62" s="14"/>
+      <c r="AX62" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY62" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ62" s="15"/>
+      <c r="BA62" s="13"/>
+      <c r="BB62" s="14"/>
+      <c r="BC62" s="14"/>
+      <c r="BD62" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE62" s="14"/>
+      <c r="BF62" s="14"/>
+      <c r="BG62" s="14"/>
+      <c r="BH62" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI62" s="13"/>
+      <c r="BJ62" s="14"/>
+      <c r="BK62" s="14"/>
+      <c r="BL62" s="14"/>
+      <c r="BM62" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN62" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO62" s="14"/>
+      <c r="BP62" s="15"/>
+      <c r="BQ62" s="13"/>
+      <c r="BR62" s="14"/>
+      <c r="BS62" s="14"/>
+      <c r="BT62" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BU62" s="14"/>
+      <c r="BV62" s="14"/>
+      <c r="BW62" s="14"/>
+      <c r="BX62" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BY62" s="13"/>
+      <c r="BZ62" s="14"/>
+      <c r="CA62" s="14"/>
+      <c r="CB62" s="14"/>
+      <c r="CC62" s="14"/>
+      <c r="CD62" s="14"/>
+      <c r="CE62" s="14"/>
+      <c r="CF62" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U63" s="13"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y63" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z63" s="14"/>
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC63" s="13"/>
+      <c r="AD63" s="14"/>
+      <c r="AE63" s="14"/>
+      <c r="AF63" s="14"/>
+      <c r="AG63" s="14"/>
+      <c r="AH63" s="14"/>
+      <c r="AI63" s="14"/>
+      <c r="AJ63" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK63" s="13"/>
+      <c r="AL63" s="14"/>
+      <c r="AM63" s="14"/>
+      <c r="AN63" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO63" s="14"/>
+      <c r="AP63" s="14"/>
+      <c r="AQ63" s="14"/>
+      <c r="AR63" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS63" s="13"/>
+      <c r="AT63" s="14"/>
+      <c r="AU63" s="14"/>
+      <c r="AV63" s="14"/>
+      <c r="AW63" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX63" s="14"/>
+      <c r="AY63" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ63" s="15"/>
+      <c r="BA63" s="13"/>
+      <c r="BB63" s="14"/>
+      <c r="BC63" s="14"/>
+      <c r="BD63" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE63" s="14"/>
+      <c r="BF63" s="14"/>
+      <c r="BG63" s="14"/>
+      <c r="BH63" s="15"/>
+      <c r="BI63" s="13"/>
+      <c r="BJ63" s="14"/>
+      <c r="BK63" s="14"/>
+      <c r="BL63" s="14"/>
+      <c r="BM63" s="14"/>
+      <c r="BN63" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO63" s="14"/>
+      <c r="BP63" s="15"/>
+      <c r="BQ63" s="13"/>
+      <c r="BR63" s="14"/>
+      <c r="BS63" s="14"/>
+      <c r="BT63" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BU63" s="14"/>
+      <c r="BV63" s="14"/>
+      <c r="BW63" s="14"/>
+      <c r="BX63" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BY63" s="13"/>
+      <c r="BZ63" s="14"/>
+      <c r="CA63" s="14"/>
+      <c r="CB63" s="14"/>
+      <c r="CC63" s="14"/>
+      <c r="CD63" s="14"/>
+      <c r="CE63" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CF63" s="15"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U64" s="13"/>
+      <c r="V64" s="14"/>
+      <c r="W64" s="14"/>
+      <c r="X64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y64" s="14"/>
+      <c r="Z64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA64" s="14"/>
+      <c r="AB64" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC64" s="13"/>
+      <c r="AD64" s="14"/>
+      <c r="AE64" s="14"/>
+      <c r="AF64" s="14"/>
+      <c r="AG64" s="14"/>
+      <c r="AH64" s="14"/>
+      <c r="AI64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ64" s="15"/>
+      <c r="AK64" s="13"/>
+      <c r="AL64" s="14"/>
+      <c r="AM64" s="14"/>
+      <c r="AN64" s="14"/>
+      <c r="AO64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR64" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS64" s="13"/>
+      <c r="AT64" s="14"/>
+      <c r="AU64" s="14"/>
+      <c r="AV64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW64" s="14"/>
+      <c r="AX64" s="14"/>
+      <c r="AY64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ64" s="15"/>
+      <c r="BA64" s="13"/>
+      <c r="BB64" s="14"/>
+      <c r="BC64" s="14"/>
+      <c r="BD64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH64" s="15"/>
+      <c r="BI64" s="13"/>
+      <c r="BJ64" s="14"/>
+      <c r="BK64" s="14"/>
+      <c r="BL64" s="14"/>
+      <c r="BM64" s="14"/>
+      <c r="BN64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO64" s="14"/>
+      <c r="BP64" s="15"/>
+      <c r="BQ64" s="13"/>
+      <c r="BR64" s="14"/>
+      <c r="BS64" s="14"/>
+      <c r="BT64" s="14"/>
+      <c r="BU64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BV64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BW64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BX64" s="15"/>
+      <c r="BY64" s="13"/>
+      <c r="BZ64" s="14"/>
+      <c r="CA64" s="14"/>
+      <c r="CB64" s="14"/>
+      <c r="CC64" s="14"/>
+      <c r="CD64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CE64" s="14"/>
+      <c r="CF64" s="15"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U65" s="13"/>
+      <c r="V65" s="14"/>
+      <c r="W65" s="14"/>
+      <c r="X65" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y65" s="14"/>
+      <c r="Z65" s="14"/>
+      <c r="AA65" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB65" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC65" s="13"/>
+      <c r="AD65" s="14"/>
+      <c r="AE65" s="14"/>
+      <c r="AF65" s="14"/>
+      <c r="AG65" s="14"/>
+      <c r="AH65" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI65" s="14"/>
+      <c r="AJ65" s="15"/>
+      <c r="AK65" s="13"/>
+      <c r="AL65" s="14"/>
+      <c r="AM65" s="14"/>
+      <c r="AN65" s="14"/>
+      <c r="AO65" s="14"/>
+      <c r="AP65" s="14"/>
+      <c r="AQ65" s="14"/>
+      <c r="AR65" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS65" s="13"/>
+      <c r="AT65" s="14"/>
+      <c r="AU65" s="14"/>
+      <c r="AV65" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW65" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX65" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY65" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ65" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA65" s="13"/>
+      <c r="BB65" s="14"/>
+      <c r="BC65" s="14"/>
+      <c r="BD65" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE65" s="14"/>
+      <c r="BF65" s="14"/>
+      <c r="BG65" s="14"/>
+      <c r="BH65" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI65" s="13"/>
+      <c r="BJ65" s="14"/>
+      <c r="BK65" s="14"/>
+      <c r="BL65" s="14"/>
+      <c r="BM65" s="14"/>
+      <c r="BN65" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO65" s="14"/>
+      <c r="BP65" s="15"/>
+      <c r="BQ65" s="13"/>
+      <c r="BR65" s="14"/>
+      <c r="BS65" s="14"/>
+      <c r="BT65" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BU65" s="14"/>
+      <c r="BV65" s="14"/>
+      <c r="BW65" s="14"/>
+      <c r="BX65" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BY65" s="13"/>
+      <c r="BZ65" s="14"/>
+      <c r="CA65" s="14"/>
+      <c r="CB65" s="14"/>
+      <c r="CC65" s="14"/>
+      <c r="CD65" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CE65" s="14"/>
+      <c r="CF65" s="15"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U66" s="13"/>
+      <c r="V66" s="14"/>
+      <c r="W66" s="14"/>
+      <c r="X66" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y66" s="14"/>
+      <c r="Z66" s="14"/>
+      <c r="AA66" s="14"/>
+      <c r="AB66" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC66" s="13"/>
+      <c r="AD66" s="14"/>
+      <c r="AE66" s="14"/>
+      <c r="AF66" s="14"/>
+      <c r="AG66" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH66" s="14"/>
+      <c r="AI66" s="14"/>
+      <c r="AJ66" s="15"/>
+      <c r="AK66" s="13"/>
+      <c r="AL66" s="14"/>
+      <c r="AM66" s="14"/>
+      <c r="AN66" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO66" s="14"/>
+      <c r="AP66" s="14"/>
+      <c r="AQ66" s="14"/>
+      <c r="AR66" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS66" s="13"/>
+      <c r="AT66" s="14"/>
+      <c r="AU66" s="14"/>
+      <c r="AV66" s="14"/>
+      <c r="AW66" s="14"/>
+      <c r="AX66" s="14"/>
+      <c r="AY66" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ66" s="15"/>
+      <c r="BA66" s="13"/>
+      <c r="BB66" s="14"/>
+      <c r="BC66" s="14"/>
+      <c r="BD66" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE66" s="14"/>
+      <c r="BF66" s="14"/>
+      <c r="BG66" s="14"/>
+      <c r="BH66" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI66" s="13"/>
+      <c r="BJ66" s="14"/>
+      <c r="BK66" s="14"/>
+      <c r="BL66" s="14"/>
+      <c r="BM66" s="14"/>
+      <c r="BN66" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO66" s="14"/>
+      <c r="BP66" s="15"/>
+      <c r="BQ66" s="13"/>
+      <c r="BR66" s="14"/>
+      <c r="BS66" s="14"/>
+      <c r="BT66" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BU66" s="14"/>
+      <c r="BV66" s="14"/>
+      <c r="BW66" s="14"/>
+      <c r="BX66" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BY66" s="13"/>
+      <c r="BZ66" s="14"/>
+      <c r="CA66" s="14"/>
+      <c r="CB66" s="14"/>
+      <c r="CC66" s="14"/>
+      <c r="CD66" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CE66" s="14"/>
+      <c r="CF66" s="15"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U67" s="20"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="21"/>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB67" s="22"/>
+      <c r="AC67" s="20"/>
+      <c r="AD67" s="21"/>
+      <c r="AE67" s="21"/>
+      <c r="AF67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ67" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK67" s="20"/>
+      <c r="AL67" s="21"/>
+      <c r="AM67" s="21"/>
+      <c r="AN67" s="21"/>
+      <c r="AO67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR67" s="22"/>
+      <c r="AS67" s="20"/>
+      <c r="AT67" s="21"/>
+      <c r="AU67" s="21"/>
+      <c r="AV67" s="21"/>
+      <c r="AW67" s="21"/>
+      <c r="AX67" s="21"/>
+      <c r="AY67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ67" s="22"/>
+      <c r="BA67" s="20"/>
+      <c r="BB67" s="21"/>
+      <c r="BC67" s="21"/>
+      <c r="BD67" s="21"/>
+      <c r="BE67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH67" s="22"/>
+      <c r="BI67" s="20"/>
+      <c r="BJ67" s="21"/>
+      <c r="BK67" s="21"/>
+      <c r="BL67" s="21"/>
+      <c r="BM67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP67" s="22"/>
+      <c r="BQ67" s="20"/>
+      <c r="BR67" s="21"/>
+      <c r="BS67" s="21"/>
+      <c r="BT67" s="21"/>
+      <c r="BU67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BV67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BW67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BX67" s="22"/>
+      <c r="BY67" s="20"/>
+      <c r="BZ67" s="21"/>
+      <c r="CA67" s="21"/>
+      <c r="CB67" s="21"/>
+      <c r="CC67" s="21"/>
+      <c r="CD67" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="CE67" s="21"/>
+      <c r="CF67" s="22"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="AR1:AY1"/>
+    <mergeCell ref="AZ1:BG1"/>
+    <mergeCell ref="BH1:BO1"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="U59:AB59"/>
+    <mergeCell ref="AC59:AJ59"/>
+    <mergeCell ref="AK59:AR59"/>
+    <mergeCell ref="AS59:AZ59"/>
+    <mergeCell ref="BA59:BH59"/>
+    <mergeCell ref="BI59:BP59"/>
+    <mergeCell ref="BQ59:BX59"/>
+    <mergeCell ref="BY59:CF59"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3019,5 +5564,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MAX7219/matrix_8x8_patterns.xlsx
+++ b/MAX7219/matrix_8x8_patterns.xlsx
@@ -532,9 +532,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>89</xdr:col>
-      <xdr:colOff>59760</xdr:colOff>
+      <xdr:colOff>59400</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -548,7 +548,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11799720" y="3690720"/>
-          <a:ext cx="4253760" cy="4115880"/>
+          <a:ext cx="4253400" cy="4115520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -593,7 +593,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="45" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="49" style="0" width="2.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="51" style="0" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="104" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="104" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2142,7 +2142,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="2" style="0" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="34" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="34" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2358,7 +2358,7 @@
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="1" style="0" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="78" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="78" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3019,7 +3019,7 @@
   <dimension ref="D1:CF69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CB49" activeCellId="0" sqref="CB49"/>
+      <selection pane="topLeft" activeCell="BE53" activeCellId="0" sqref="BE53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/MAX7219/matrix_8x8_patterns.xlsx
+++ b/MAX7219/matrix_8x8_patterns.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="51">
   <si>
     <t xml:space="preserve">C7</t>
   </si>
@@ -526,7 +526,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>119160</xdr:colOff>
+      <xdr:colOff>119520</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>69480</xdr:rowOff>
     </xdr:from>
@@ -534,7 +534,7 @@
       <xdr:col>89</xdr:col>
       <xdr:colOff>59400</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -547,8 +547,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11799720" y="3690720"/>
-          <a:ext cx="4253400" cy="4115520"/>
+          <a:off x="11800080" y="3690720"/>
+          <a:ext cx="4253040" cy="4115160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -570,8 +570,8 @@
   </sheetPr>
   <dimension ref="B1:AX322"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD30" activeCellId="0" sqref="AD30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2134,7 +2134,7 @@
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -2351,7 +2351,7 @@
   </sheetPr>
   <dimension ref="D1:BO28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -3016,15 +3016,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D1:CF69"/>
+  <dimension ref="D1:DD95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BE53" activeCellId="0" sqref="BE53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CC50" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DA71" activeCellId="0" sqref="DA71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="2.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="1" style="0" width="2.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="101" style="0" width="2.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5536,6 +5538,629 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CL78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CR78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CS78" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CJ79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL79" s="6"/>
+      <c r="CM79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CN79" s="7"/>
+      <c r="CO79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP79" s="7"/>
+      <c r="CQ79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="CR79" s="7"/>
+      <c r="CS79" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV79" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW79" s="0" t="n">
+        <f aca="false">IF(CL79="x",128,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX79" s="0" t="n">
+        <f aca="false">IF(CM79="x",128,0)</f>
+        <v>128</v>
+      </c>
+      <c r="CY79" s="0" t="n">
+        <f aca="false">IF(CN79="x",128,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CZ79" s="0" t="n">
+        <f aca="false">IF(CO79="x",128,0)</f>
+        <v>128</v>
+      </c>
+      <c r="DA79" s="0" t="n">
+        <f aca="false">IF(CP79="x",128,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DB79" s="0" t="n">
+        <f aca="false">IF(CQ79="x",128,0)</f>
+        <v>128</v>
+      </c>
+      <c r="DC79" s="0" t="n">
+        <f aca="false">IF(CR79="x",128,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DD79" s="0" t="n">
+        <f aca="false">IF(CS79="x",128,0)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CJ80" s="1"/>
+      <c r="CK80" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="CL80" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM80" s="14"/>
+      <c r="CN80" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO80" s="14"/>
+      <c r="CP80" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CQ80" s="14"/>
+      <c r="CR80" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS80" s="15"/>
+      <c r="CV80" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="CW80" s="0" t="n">
+        <f aca="false">IF(CL80="x",64,0)</f>
+        <v>64</v>
+      </c>
+      <c r="CX80" s="0" t="n">
+        <f aca="false">IF(CM80="x",64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CY80" s="0" t="n">
+        <f aca="false">IF(CN80="x",64,0)</f>
+        <v>64</v>
+      </c>
+      <c r="CZ80" s="0" t="n">
+        <f aca="false">IF(CO80="x",64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DA80" s="0" t="n">
+        <f aca="false">IF(CP80="x",64,0)</f>
+        <v>64</v>
+      </c>
+      <c r="DB80" s="0" t="n">
+        <f aca="false">IF(CQ80="x",64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DC80" s="0" t="n">
+        <f aca="false">IF(CR80="x",64,0)</f>
+        <v>64</v>
+      </c>
+      <c r="DD80" s="0" t="n">
+        <f aca="false">IF(CS80="x",64,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CJ81" s="1"/>
+      <c r="CK81" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="CL81" s="13"/>
+      <c r="CM81" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CN81" s="14"/>
+      <c r="CO81" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP81" s="14"/>
+      <c r="CQ81" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CR81" s="14"/>
+      <c r="CS81" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV81" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="CW81" s="0" t="n">
+        <f aca="false">IF(CL81="x",32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX81" s="0" t="n">
+        <f aca="false">IF(CM81="x",32,0)</f>
+        <v>32</v>
+      </c>
+      <c r="CY81" s="0" t="n">
+        <f aca="false">IF(CN81="x",32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CZ81" s="0" t="n">
+        <f aca="false">IF(CO81="x",32,0)</f>
+        <v>32</v>
+      </c>
+      <c r="DA81" s="0" t="n">
+        <f aca="false">IF(CP81="x",32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DB81" s="0" t="n">
+        <f aca="false">IF(CQ81="x",32,0)</f>
+        <v>32</v>
+      </c>
+      <c r="DC81" s="0" t="n">
+        <f aca="false">IF(CR81="x",32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DD81" s="0" t="n">
+        <f aca="false">IF(CS81="x",32,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CJ82" s="1"/>
+      <c r="CK82" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="CL82" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM82" s="14"/>
+      <c r="CN82" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO82" s="14"/>
+      <c r="CP82" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CQ82" s="14"/>
+      <c r="CR82" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS82" s="15"/>
+      <c r="CV82" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="CW82" s="0" t="n">
+        <f aca="false">IF(CL82="x",16,0)</f>
+        <v>16</v>
+      </c>
+      <c r="CX82" s="0" t="n">
+        <f aca="false">IF(CM82="x",16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CY82" s="0" t="n">
+        <f aca="false">IF(CN82="x",16,0)</f>
+        <v>16</v>
+      </c>
+      <c r="CZ82" s="0" t="n">
+        <f aca="false">IF(CO82="x",16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DA82" s="0" t="n">
+        <f aca="false">IF(CP82="x",16,0)</f>
+        <v>16</v>
+      </c>
+      <c r="DB82" s="0" t="n">
+        <f aca="false">IF(CQ82="x",16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DC82" s="0" t="n">
+        <f aca="false">IF(CR82="x",16,0)</f>
+        <v>16</v>
+      </c>
+      <c r="DD82" s="0" t="n">
+        <f aca="false">IF(CS82="x",16,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CJ83" s="1"/>
+      <c r="CK83" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="CL83" s="13"/>
+      <c r="CM83" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CN83" s="14"/>
+      <c r="CO83" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP83" s="14"/>
+      <c r="CQ83" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CR83" s="14"/>
+      <c r="CS83" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV83" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="CW83" s="0" t="n">
+        <f aca="false">IF(CL83="x",8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX83" s="0" t="n">
+        <f aca="false">IF(CM83="x",8,0)</f>
+        <v>8</v>
+      </c>
+      <c r="CY83" s="0" t="n">
+        <f aca="false">IF(CN83="x",8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CZ83" s="0" t="n">
+        <f aca="false">IF(CO83="x",8,0)</f>
+        <v>8</v>
+      </c>
+      <c r="DA83" s="0" t="n">
+        <f aca="false">IF(CP83="x",8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DB83" s="0" t="n">
+        <f aca="false">IF(CQ83="x",8,0)</f>
+        <v>8</v>
+      </c>
+      <c r="DC83" s="0" t="n">
+        <f aca="false">IF(CR83="x",8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DD83" s="0" t="n">
+        <f aca="false">IF(CS83="x",8,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CJ84" s="1"/>
+      <c r="CK84" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="CL84" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM84" s="14"/>
+      <c r="CN84" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO84" s="14"/>
+      <c r="CP84" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CQ84" s="14"/>
+      <c r="CR84" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS84" s="15"/>
+      <c r="CV84" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="CW84" s="0" t="n">
+        <f aca="false">IF(CL84="x",4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="CX84" s="0" t="n">
+        <f aca="false">IF(CM84="x",4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CY84" s="0" t="n">
+        <f aca="false">IF(CN84="x",4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="CZ84" s="0" t="n">
+        <f aca="false">IF(CO84="x",4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DA84" s="0" t="n">
+        <f aca="false">IF(CP84="x",4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="DB84" s="0" t="n">
+        <f aca="false">IF(CQ84="x",4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DC84" s="0" t="n">
+        <f aca="false">IF(CR84="x",4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="DD84" s="0" t="n">
+        <f aca="false">IF(CS84="x",4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CJ85" s="1"/>
+      <c r="CK85" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CL85" s="13"/>
+      <c r="CM85" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CN85" s="14"/>
+      <c r="CO85" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP85" s="14"/>
+      <c r="CQ85" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CR85" s="14"/>
+      <c r="CS85" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="CW85" s="0" t="n">
+        <f aca="false">IF(CL85="x",2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CX85" s="0" t="n">
+        <f aca="false">IF(CM85="x",2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="CY85" s="0" t="n">
+        <f aca="false">IF(CN85="x",2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CZ85" s="0" t="n">
+        <f aca="false">IF(CO85="x",2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="DA85" s="0" t="n">
+        <f aca="false">IF(CP85="x",2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DB85" s="0" t="n">
+        <f aca="false">IF(CQ85="x",2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="DC85" s="0" t="n">
+        <f aca="false">IF(CR85="x",2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DD85" s="0" t="n">
+        <f aca="false">IF(CS85="x",2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CJ86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CK86" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="CL86" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM86" s="21"/>
+      <c r="CN86" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO86" s="21"/>
+      <c r="CP86" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="CQ86" s="21"/>
+      <c r="CR86" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS86" s="22"/>
+      <c r="CV86" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW86" s="0" t="n">
+        <f aca="false">IF(CL86="x",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="CX86" s="0" t="n">
+        <f aca="false">IF(CM86="x",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CY86" s="0" t="n">
+        <f aca="false">IF(CN86="x",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="CZ86" s="0" t="n">
+        <f aca="false">IF(CO86="x",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DA86" s="0" t="n">
+        <f aca="false">IF(CP86="x",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="DB86" s="0" t="n">
+        <f aca="false">IF(CQ86="x",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DC86" s="0" t="n">
+        <f aca="false">IF(CR86="x",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="DD86" s="0" t="n">
+        <f aca="false">IF(CS86="x",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CV88" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="CW88" s="26" t="str">
+        <f aca="false">DEC2HEX((SUM(CW79:CW86)),2)</f>
+        <v>55</v>
+      </c>
+      <c r="CX88" s="26"/>
+      <c r="CY88" s="26"/>
+      <c r="CZ88" s="26"/>
+      <c r="DA88" s="26"/>
+      <c r="DB88" s="26"/>
+      <c r="DC88" s="26"/>
+      <c r="DD88" s="26"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CV89" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="CW89" s="26"/>
+      <c r="CX89" s="26" t="str">
+        <f aca="false">DEC2HEX(SUM(CX79:CX86),2)</f>
+        <v>AA</v>
+      </c>
+      <c r="CY89" s="26"/>
+      <c r="CZ89" s="26"/>
+      <c r="DA89" s="26"/>
+      <c r="DB89" s="26"/>
+      <c r="DC89" s="26"/>
+      <c r="DD89" s="26"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CV90" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW90" s="26"/>
+      <c r="CX90" s="26"/>
+      <c r="CY90" s="26" t="str">
+        <f aca="false">DEC2HEX(SUM(CY79:CY86),2)</f>
+        <v>55</v>
+      </c>
+      <c r="CZ90" s="26"/>
+      <c r="DA90" s="26"/>
+      <c r="DB90" s="26"/>
+      <c r="DC90" s="26"/>
+      <c r="DD90" s="26"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CV91" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW91" s="26"/>
+      <c r="CX91" s="26"/>
+      <c r="CY91" s="26"/>
+      <c r="CZ91" s="26" t="str">
+        <f aca="false">DEC2HEX(SUM(CZ79:CZ86),2)</f>
+        <v>AA</v>
+      </c>
+      <c r="DA91" s="26"/>
+      <c r="DB91" s="26"/>
+      <c r="DC91" s="26"/>
+      <c r="DD91" s="26"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CV92" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW92" s="26"/>
+      <c r="CX92" s="26"/>
+      <c r="CY92" s="26"/>
+      <c r="CZ92" s="26"/>
+      <c r="DA92" s="26" t="str">
+        <f aca="false">DEC2HEX(SUM(DA79:DA86),2)</f>
+        <v>55</v>
+      </c>
+      <c r="DB92" s="26"/>
+      <c r="DC92" s="26"/>
+      <c r="DD92" s="26"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CV93" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="CW93" s="26"/>
+      <c r="CX93" s="26"/>
+      <c r="CY93" s="26"/>
+      <c r="CZ93" s="26"/>
+      <c r="DA93" s="26"/>
+      <c r="DB93" s="26" t="str">
+        <f aca="false">DEC2HEX(SUM(DB79:DB86),2)</f>
+        <v>AA</v>
+      </c>
+      <c r="DC93" s="26"/>
+      <c r="DD93" s="26"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CV94" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="CW94" s="26"/>
+      <c r="CX94" s="26"/>
+      <c r="CY94" s="26"/>
+      <c r="CZ94" s="26"/>
+      <c r="DA94" s="26"/>
+      <c r="DB94" s="26"/>
+      <c r="DC94" s="26" t="str">
+        <f aca="false">DEC2HEX(SUM(DC79:DC86),2)</f>
+        <v>55</v>
+      </c>
+      <c r="DD94" s="26"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CV95" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="CW95" s="26"/>
+      <c r="CX95" s="26"/>
+      <c r="CY95" s="26"/>
+      <c r="CZ95" s="26"/>
+      <c r="DA95" s="26"/>
+      <c r="DB95" s="26"/>
+      <c r="DC95" s="26"/>
+      <c r="DD95" s="26" t="str">
+        <f aca="false">DEC2HEX(SUM(DD79:DD86),2)</f>
+        <v>AA</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="D1:K1"/>
